--- a/500all/speech_level/speeches_CHRG-114hhrg20382.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20382.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The hearing will come to order and good afternoon to everybody.    We are here today to examine the global impact of nutrition and supplements during the first 1,000 days of life, a period from conception to roughly age two, and how we can leverage U.S. taxpayer funds to achieve maximum results.    As you know, this subcommittee has played a key role in advocating for an enhanced focus on food security. For the past two Congresses, I have been working on authorizing legislation for our flagship nutrition and food security program, Feed the Future, and worked very closely with Dr. Shah before he left USAID, on crafting that legislation.    I authored the Global Food Security Act of 2015, H.R. 1567, which passed the House in April, as did its predecessor bill in the last Congress, thanks in large part to the leadership of Majority Leader Kevin McCarthy, who has a very personal and key interest in ensuring that this legislation becomes law.    Today's program also follows upon a hearing we did in the latter part of 2015 called Food Security and Nutrition Programs in Africa, which highlighted the role implementer play on the ground as well as a hearing we held last Congress that we called ``The First One Thousand Days: Development Aid Programs to Bolster Health and Nutrition.''    For this afternoon's program, we will step back and take a look at the role played not only by the U.S. Government, which has been pivotal, but also the United Nations.    Thus, we will be hearing from USAID's Assistant to the Administrator Dr. Beth Dunford, who will relay to us remarkable results that USAID-led Feed the Future initiative has achieved in reducing stunting by emphasizing those first 1,000 days and the implication of those results for developing nations that are seeking to grow not only their human capital but also their economies.    We will also be briefed first by Ajay Markanday of the Innovations Food and Agricultural Organization. Part of our ability to leverage U.S. funds depends on our partners who play key roles in enhancing food security throughout the globe and none is more important in this regard than the FAO.    I want to highlight that in his statement there is an underscored in a key point of this hearing the rationale for supporting proper nutrition is not simply a moral imperative but it is also economic.    It has been long established that malnutrition undermines economic growth and perpetuates poverty. Indeed, there is perhaps no wiser investment that we could make not only in an individual person but also in the economies of the developing world than to concentrate on ensuring that sufficient nutrition and health assistance is given during those first 1,000 days of life.    Children who do not receive adequate nutrition in utero are more likely to experience lifelong cognitive and physical deficiencies, due in particular to stunting. UNICEF estimates that one in four children worldwide are stunted due to a lack of adequate nutrition.    The African Union Commission's Cost of Hunger in Africa study estimated that the economic costs associated with child under nutrition are substantial, from 2 percent to 16 percent of the gross national product in several African nations.    For instance, this cost was estimated at $4.7 billion in Ethiopia in 2000 alone, which is equivalent to 16 percent of Ethiopia's GNP.    Conversely, by helping women throughout pregnancy receive adequate nutrition and supplemental micro nutrients such as iodine, Vitamin A, and folic acid, and ensuring that they are well nourished by nursing, children and mothers thrive.    To give one example, studies indicate that if we provide women of childbearing years with the recommended dose of folic acid during the 3 months prior to pregnancy and during the first month of pregnancy, the risk of autism spectrum disorder, or ASD, is reduced by a whopping 40 percent.    We do look forward to hearing some of the results that USAID has been able to accomplish with regard to reducing stunting, again, attributable to the Feed the Future program.    It is also my hope that as we look now to the next administration that we will be able to enshrine food security and nutrition as a firmly planted cornerstone of U.S. policy.    Consider how President Bush beginning in 2002 had the initial foresight to elevate the import role of food security in U.S. foreign policy, especially in Africa, via the Initiative to End Hunger in Africa, or the IEHA, which was funded through development assistance and implemented through     At the same time, the Millennium Challenge Corporation began making substantial investments in agriculture-led economic growth programs, particularly in Africa.    This is a policy course that President Obama has continued and built upon with the Feed the Future initiative instituted at the G8 meeting in Italy in 2009 when the countries of the world came together to ensure that we cultivate resiliency in food insecure countries so they can withstand the next food crisis such as what we saw in 2007 to 2008, a crisis that Dr. Beth Dunford was on the front lines in battling.    It is my hope and the committee's hope that the next administration, whomever the President may be, will build upon this and continue that focus, for by addressing nutrition during the first 1,000 days of life we can help ensure that the next 25,000 days, or whatever the number our Creator has allotted for that individual, are filled with good health.    I would like to now yield to my good friend and colleague, Ranking Member Bass, for an opening statement.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair.    I also want to thank Mr. Markanday and Dr. Dunford for appearing before the subcommittee this afternoon, and I look forward to hearing their perspective and testimony on what is one of the most important issues facing the developing and developed world.    As I have said in the past, the U.S. has long been a leader in the realm of food aid internationally and over the years has contributed consistently and innovatively regarding the global challenge.    President Obama established the Bureau of Food Security in 2010 and by doing so demonstrated the high priority that we place on addressing the issue of global food insecurity.    This key decision by the Obama administration has led to greater coordination amongst government agencies and leveraged strategically government efforts to combat global hunger and food insecurity by not only working with recipient governments but also with international organizations and other donors.    Feed the Future stands out in this effort to combat some of the most challenging examples of food insecurity worldwide.    I believe one of the reasons that the U.S. has led so effectively in this arena is the focus that the government places on strong partnerships with recipient countries.    Also, the Feed the Future program has worked with not only host governments, but also the private sector and, critically, local civil society, I believe, this inclusive approach is the key to the initiative's effective implementation.    Addressing food security challenges effectively also means addressing the challenges facing newborns in countries plagued with food insecurity.    In this regard, I look forward to hearing the testimony of Dr. Dunford regarding progress and ongoing challenges regarding stunting. Of particular interest to me are identifying what approaches work successfully and whether success in one region of Africa, for example, can be duplicated in another region.    Also, I would like to know what role capacity training has played in these efforts. I would also welcome statistical information regarding successes and challenges faced by countries in both Africa and Asia and how our country in concert with the host countries, the international community, and donors can help address such challenges.    Thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Markanday</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Markanday. On behalf of Dr. Graziano da Silva, the Director-General of the United Nations Food and Agricultural Organization, I would like to thank Chairman Royce, Chairman Smith, and Ranking Members Bass and Engel for the opportunity and honor to brief you this afternoon on the work the FAO is undertaking to support the efforts of the United States in the fight against global hunger and malnutrition.    I would also like to acknowledge USAID, an extremely valued partner of FAO and, especially, Dr. Beth Dunford and the Feed the Future team who are staunch advocates for the principles of Chairman Smith's Global Food Security Act.    Chairman Smith's contribution, passion, and unyielding drive in advancing the health and nutrition needs of children worldwide is at the core of what brings us here today.    From the beginning, FAO has been inspired and supported by generous contributions from the people of the United States. The United States and FAO have a historic relationship and the U.S. was instrumental in its creation and leadership.    In 1943, President Franklin Roosevelt convened 40 countries in Hot Springs, Virginia to charter an international organization dedicated to global food nutrition and agriculture.    So, Mr. Chairman and honorable members of the subcommittee, FAO owes a tremendous debt of gratitude to your country's vision for a world free from hunger.    To this day, America's vision remains at the heart of FAO's charter. Chairman Smith's Global Food Security Act and its significant bipartisan sponsorship further demonstrates U.S. leadership where no child is left malnourished.    I hope that the U.S. further leverages the longstanding relationship and partnership with FAO in advancing the act's worthy principles.    As background and to further underscore the significant relationship between the U.S. and FAO, it is important to note that the U.S. is not only FAO's founding member country but also our largest resource partner.    The United States contributes the lion's share of the FAO budget and is second only to the European Commission in voluntary contributions.    In addition to significant financial contributions through USAID, USDA, and other U.S. agencies, FAO receives valuable in-kind contributions from the U.S. through scientific and technical expertise.    U.S. expertise had been instrumental in shaping key FAO policies and programs at the global and country levels. Major areas of cooperation include food and nutrition security, emergency assistance and resilience, food safety, and sustainable agricultural production and natural resource management. There is ample scope for expanding and deepening our collaboration in nutrition.    And now I will turn to the concerted efforts of FAO in the area of global nutrition in the first 1,000 days.    Ending hunger, food insecurity, and malnutrition is our director general's highest priority. In 2014, FAO co-hosted the second international conference in nutrition where 170 countries made the noble commitment of reducing all forms of malnutrition under the Rome Declaration.    Following the Declaration, I am pleased that the United Nations General Assembly has unanimously endorsed the Decade of Action for Nutrition earlier this year.    Supporting proper nutrition is not simply a moral imperative but, it makes economic sense. Malnutrition undermines economic growth and perpetuates poverty with productivity losses to the individual estimated at greater than 10 percent of lifetime earnings.    To the economy, losses are high and in Africa and Asia are estimated at over 11 percent per annum of GDP. Yet, targeted investments in promoting nutrition, providing micro nutrients, and supporting community-based programs targeted at children rank among the highest of all investments.    Improving nutrition in the first 1,000 days must be backed by sustainable private-public partnerships. In this regard, FAO values the role of the private sector and recognizes its essential contribution to ensure nutritional quality and food safety, investment to infrastructure and storage, and improvements in supply chains.    The private sector is our key ally under our private sector strategy. The first 1,000 days in a child's life are critical. Malnutrition leads to infection and stunted growth, resulting in poor physical and cognitive development, as Chairman Smith has just pointed out.    However, malnutrition during this period can effectively be addressed through targeted investments, proper proteins and vitamins, and especially through diversified diets.    FAO's unique comparative advantage and strength amongst development partners includes the ability to convene governments and other actors, the sharing of information and best practices, the development of effective policy dialogue, the development and dissemination of norm standards and guidelines, and the delivery of technical assistance at the primary school as well as the university levels.    The key elements of FAO's comprehensive strategy on nutrition include increased knowledge in scientific exchange, diversified food systems, the importance of food intake and food safety, and creating an enabling environment by main streaming those policies into national agricultural and investment plans.    FAO has partnered with USAID in many spheres, especially under FANTA to monitor programs, progress in outcomes and has developed indicators.    Additional collaborative efforts with USAID and Feed the Future include field-based trials in countries like Bangladesh and Cambodia, where I served, and Zambia.    A good example is Bangladesh, where FAO leveraged financing from USAID to leverage other financing from the European Union.    These activities are now being scaled up as part of the USAID--FAO Meeting the Under Nutrition Challenge program with main-streaming this program into national food policy and country investment plans.    FAO also works closely with USAID in support of the African Union's new partnership for African development in building capacities of the 50 member states of the African Development Bank to main-stream nutrition and agriculture investment plans through the CAADP Nutrition Capacity Development Initiative.    Mr. Chairman and honorable members, in conclusion, FAO is an international organization and is at the service of its members. We are both an instrument of the collective policies and the goals of our member governments.    As I have noted, the United States is a leading member and partner of FAO. Our history is longstanding and your contribution is unmatched. The U.S. should expect results from FAO to be a collaborative instrument in furthering the goals of the Global Food Security Act.    We have 197 member countries and organizations, and offices and programs in 130 countries. Therefore, FAO can be strategically leveraged by the United States as a partner to collaborate directly with our members who achieve far-reaching positive goals, results, and progress.    For example, the last world food summit hosted by the FAO brought together 5,000 delegates from 180 countries including 60 heads of state. During this summit, $20 billion was pledged to end world hunger.    FAO has the political neutrality and mandate to globally raise levels of nutrition and standards of living and FAO can be instrumental in articulating and fostering your global health, nutrition goals, and initiatives.    Chairman Smith, Ranking Member Bass and members of the subcommittee, recognizing that your oversight extends to international organizations, I leave you with one final thought for your consideration and for this I am removing my FAO cap and doffing my international civil servant cap.    In addition to the FAO, I have worked with and within many international organizations globally. I cannot think of a single one that, like FAO, which the United States does not contribute to and invest in generously.    In fact, the United States of America usually invests to the vast majority of other countries. These international organizations to which the U.S. belongs and invests can and should be effective and responsive instruments in promoting sound global policy be it for health, nutrition, trade, economics, or wherever your priorities exist.    For many countries that have limited national resources, they effectively use international organizations as vehicles to leverage their policy agenda and goals.    I submit for your consideration that the U.S. can be even more effective in your strategic engagement with these organizations and enrich new investments substantially.    Demand return on your investments. And on that note, I will now replace my FAO cap and pledge to this subcommittee and the entire U.S. Government and citizens that as the director of FAO for North America you have my highest assurances that I will strive every day to deliver results and return on your investment on behalf of FAO.    Once again, Chairman Smith and members of the subcommittee, I thank you for the honor and privilege of briefing you today.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t xml:space="preserve">    Mr. Smith. Thank you. And Mr. Markanday, also--and you'll never have this problem but compassion fatigue is a problem we have to be careful about.    I will never forget after the first drought--man-made drought by Mengistu in Ethiopia everybody was on board. We are the world. When it hit the second time it was like been there, done that, got the T-shirt. People were not interested. It was horrible because people were dying.    So, again, you're part of the leadership that ensures that these individuals are never forgotten. The emphasis on not just saving lives, but enhancing your ability to get a better education and to go on to raising more dollars by way of their capabilities for their families, it's a win-win-win all over the place. So thank you again for your leadership.    Thank you. We would like to now resume our congressional hearing and again thank Mr. Markanday for his appearance here today and his insights.    We would like to welcome to the witness table Dr. Beth Dunford, who is the Assistant to the Administrator in USAID's Bureau for Food Security as well as Deputy Coordinator for Development for Feed the Future, the U.S. Government's global hunger and food security initiative.    In this dual role, Dr. Dunford coordinates implementation of Feed the Future across the U.S. Government, a whole of government approach, oversees its execution, reports on results, and leads engagement with the external community to ensure that food security remains high on the development agenda.    Dr. Dunford also oversees USAID's technical and regional expertise focused on improving food security to sustainable reduce hunger, poverty, and undernutrition.    A career Foreign Service Officer, she most recently served as Director of USAID's Mission in Nepal and has also served in Ethiopia, Afghanistan, and a number of roles in Washington. Please proceed as you would like.</t>
   </si>
   <si>
-    <t>Dunford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Dunford. Thank you. Good afternoon, Chairman Smith, Ranking Member Bass, members of the subcommittee. Thank you for inviting me to speak today and thanks to all of you for your continued support and leadership on nutrition and food security.    I also want to thank Mr. Markanday for that presentation. We are grateful for the FAO's close collaboration with Feed the Future and it is wonderful to hear Mr. Markanday reaffirm just how seriously the FAO takes nutrition.    In particular, I would like to express my gratitude to you, Chairman Smith, for introducing the Global Food Security Act, which shows the U.S. Government's strong bipartisan commitment to reducing global hunger, poverty, and malnutrition.    The Global Food Security Act has passed both the House and the Senate and we are looking forward to working with the subcommittee members and Congress to pass it into law.    And as Feed the Future's Deputy Coordinator for Development, I am honored to be able to talk to you today about the important role the U.S. Government is playing in the fight against global hunger, poverty, and malnutrition, particularly during the critical 1,000-day window between pregnancy and a child's second birthday when good nutrition matters the most.    Nutrition bridges many areas. It affects human health, development, economic growth, agriculture, education and resilience, and because of this Feed the Future has taken a comprehensive approach to undernutrition.    And this approach has contributed to substantial progress on food security and nutrition globally. Farm productivity is on the rise among much of the global south. Poverty rates and hunger have fallen dramatically in many of the countries where we work.    Growth rates in agriculture are among the highest in recent history, and preliminary data demonstrate that we are on track to see poverty and stunting reduced by an average of 20 percent across the areas where Feed the Future works by 2017.    Just one example of this is Cambodia, where from 2010 to 2015 the prevalence of stunting fell by 23.3 percent across the areas where Feed the Future focuses its efforts.    And while we have seen impressive gains over the past 5 years, particularly on stunting and nutrition, there is still much more to be done.    We know that 795 million people are still undernourished globally, and that is 795 million too many.    Undernutrition, particularly early in life, impairs cognitive, socio-emotional, and also motor development. It leads to lower levels of educational attainment, productivity and lifetime earnings, and ultimately it slows economic growth.    For example, we know that by reducing stunting by just 20 percent can lead to an 11 percent increase in incomes. We also know that relatively simple interventions such as increased consumption of vitamin-rich orange-fleshed sweet potatoes can have a transformative impact on people's lives, especially children's.    Our interventions in nutrition are a smart investment in building human capital and shared prosperity. Every dollar spent on improved nutrition yields up to $18 in returns.    But to accelerate progress on poverty and hunger, and to ensure robust inclusive economic growth for years to come, we must do more to end malnutrition.    Significant reductions in stunting take time. But given the solid collective results over the past decade, and the global community's commitment to solving these issues, I am optimistic that we can work together across sectors, across disciplines, and we will see the elimination of malnutrition.    And while it's clear that Feed the Future can and has done a lot, we know that we will never be able to eradicate global hunger, poverty, and undernutrition on our own.    To succeed, we have to have additional partners committed to transforming agro-food systems so we can deliver benefits like good nutrition for years to come.    But impact like this does take funding, and to pay for it all we must develop a new international framework for financing agriculture, food security, and nutrition, one that goes beyond donor assistance to better leverage resources from all sectors.    So going forward, Feed the Future will intensify our partnerships--and we have been intensifying our partnerships--with: developing country governments to expand ownership and create environments that allow our investments to take root, multiply, and thrive; the private sector to bring market access, cutting-edge business practices, and innovative insights to the development table; and financial institutions to spur greater investment in small and medium enterprises and small-holder farms, ensuring inclusive sustainable economic growth on a macro level.    And civil society is also important. They help to amplify our message, increase transparency, and make sure that vulnerable groups are protected and our investments reach our targeted population.    By bringing partners together, to focus efforts on agriculture and nutrition, Feed the Future and the U.S. Government have achieved a great deal. Our approach is working and we can and will leverage it to do much more.    And that is why Feed the Future will continue to forge new partnerships and strategically steward our resources to multiply our impact and build a more food- and nutrition-secure future.    One of the most important partners we have in this is the United States Congress, and I want to thank you again for your leadership on this issue.    I am grateful for the opportunity to speak with you today and I welcome any questions, comments, and suggestions you might have.</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
   </si>
   <si>
     <t>412604</t>
-  </si>
-  <si>
-    <t>Curt Clawson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming. Thank you for your important work.</t>
@@ -625,11 +610,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -649,13 +632,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -677,11 +658,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -701,13 +680,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -729,11 +706,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -753,13 +728,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -781,11 +754,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -805,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -833,11 +802,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -857,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -885,11 +850,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -909,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -937,11 +898,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -961,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -989,11 +946,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1013,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1039,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1065,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1091,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1117,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1143,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1169,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1195,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1221,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1247,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1273,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1299,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1325,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1351,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>43</v>
-      </c>
-      <c r="H30" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1377,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1403,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s">
-        <v>43</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1429,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1457,11 +1378,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1481,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1509,11 +1426,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1533,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1561,11 +1474,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1587,11 +1498,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1611,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1639,11 +1546,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1663,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1691,11 +1594,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1715,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1743,11 +1642,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1767,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1795,11 +1690,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1819,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1847,11 +1738,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1871,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1899,11 +1786,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1923,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1951,11 +1834,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20382.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20382.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The hearing will come to order and good afternoon to everybody.    We are here today to examine the global impact of nutrition and supplements during the first 1,000 days of life, a period from conception to roughly age two, and how we can leverage U.S. taxpayer funds to achieve maximum results.    As you know, this subcommittee has played a key role in advocating for an enhanced focus on food security. For the past two Congresses, I have been working on authorizing legislation for our flagship nutrition and food security program, Feed the Future, and worked very closely with Dr. Shah before he left USAID, on crafting that legislation.    I authored the Global Food Security Act of 2015, H.R. 1567, which passed the House in April, as did its predecessor bill in the last Congress, thanks in large part to the leadership of Majority Leader Kevin McCarthy, who has a very personal and key interest in ensuring that this legislation becomes law.    Today's program also follows upon a hearing we did in the latter part of 2015 called Food Security and Nutrition Programs in Africa, which highlighted the role implementer play on the ground as well as a hearing we held last Congress that we called ``The First One Thousand Days: Development Aid Programs to Bolster Health and Nutrition.''    For this afternoon's program, we will step back and take a look at the role played not only by the U.S. Government, which has been pivotal, but also the United Nations.    Thus, we will be hearing from USAID's Assistant to the Administrator Dr. Beth Dunford, who will relay to us remarkable results that USAID-led Feed the Future initiative has achieved in reducing stunting by emphasizing those first 1,000 days and the implication of those results for developing nations that are seeking to grow not only their human capital but also their economies.    We will also be briefed first by Ajay Markanday of the Innovations Food and Agricultural Organization. Part of our ability to leverage U.S. funds depends on our partners who play key roles in enhancing food security throughout the globe and none is more important in this regard than the FAO.    I want to highlight that in his statement there is an underscored in a key point of this hearing the rationale for supporting proper nutrition is not simply a moral imperative but it is also economic.    It has been long established that malnutrition undermines economic growth and perpetuates poverty. Indeed, there is perhaps no wiser investment that we could make not only in an individual person but also in the economies of the developing world than to concentrate on ensuring that sufficient nutrition and health assistance is given during those first 1,000 days of life.    Children who do not receive adequate nutrition in utero are more likely to experience lifelong cognitive and physical deficiencies, due in particular to stunting. UNICEF estimates that one in four children worldwide are stunted due to a lack of adequate nutrition.    The African Union Commission's Cost of Hunger in Africa study estimated that the economic costs associated with child under nutrition are substantial, from 2 percent to 16 percent of the gross national product in several African nations.    For instance, this cost was estimated at $4.7 billion in Ethiopia in 2000 alone, which is equivalent to 16 percent of Ethiopia's GNP.    Conversely, by helping women throughout pregnancy receive adequate nutrition and supplemental micro nutrients such as iodine, Vitamin A, and folic acid, and ensuring that they are well nourished by nursing, children and mothers thrive.    To give one example, studies indicate that if we provide women of childbearing years with the recommended dose of folic acid during the 3 months prior to pregnancy and during the first month of pregnancy, the risk of autism spectrum disorder, or ASD, is reduced by a whopping 40 percent.    We do look forward to hearing some of the results that USAID has been able to accomplish with regard to reducing stunting, again, attributable to the Feed the Future program.    It is also my hope that as we look now to the next administration that we will be able to enshrine food security and nutrition as a firmly planted cornerstone of U.S. policy.    Consider how President Bush beginning in 2002 had the initial foresight to elevate the import role of food security in U.S. foreign policy, especially in Africa, via the Initiative to End Hunger in Africa, or the IEHA, which was funded through development assistance and implemented through     At the same time, the Millennium Challenge Corporation began making substantial investments in agriculture-led economic growth programs, particularly in Africa.    This is a policy course that President Obama has continued and built upon with the Feed the Future initiative instituted at the G8 meeting in Italy in 2009 when the countries of the world came together to ensure that we cultivate resiliency in food insecure countries so they can withstand the next food crisis such as what we saw in 2007 to 2008, a crisis that Dr. Beth Dunford was on the front lines in battling.    It is my hope and the committee's hope that the next administration, whomever the President may be, will build upon this and continue that focus, for by addressing nutrition during the first 1,000 days of life we can help ensure that the next 25,000 days, or whatever the number our Creator has allotted for that individual, are filled with good health.    I would like to now yield to my good friend and colleague, Ranking Member Bass, for an opening statement.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you, Mr. Chair.    I also want to thank Mr. Markanday and Dr. Dunford for appearing before the subcommittee this afternoon, and I look forward to hearing their perspective and testimony on what is one of the most important issues facing the developing and developed world.    As I have said in the past, the U.S. has long been a leader in the realm of food aid internationally and over the years has contributed consistently and innovatively regarding the global challenge.    President Obama established the Bureau of Food Security in 2010 and by doing so demonstrated the high priority that we place on addressing the issue of global food insecurity.    This key decision by the Obama administration has led to greater coordination amongst government agencies and leveraged strategically government efforts to combat global hunger and food insecurity by not only working with recipient governments but also with international organizations and other donors.    Feed the Future stands out in this effort to combat some of the most challenging examples of food insecurity worldwide.    I believe one of the reasons that the U.S. has led so effectively in this arena is the focus that the government places on strong partnerships with recipient countries.    Also, the Feed the Future program has worked with not only host governments, but also the private sector and, critically, local civil society, I believe, this inclusive approach is the key to the initiative's effective implementation.    Addressing food security challenges effectively also means addressing the challenges facing newborns in countries plagued with food insecurity.    In this regard, I look forward to hearing the testimony of Dr. Dunford regarding progress and ongoing challenges regarding stunting. Of particular interest to me are identifying what approaches work successfully and whether success in one region of Africa, for example, can be duplicated in another region.    Also, I would like to know what role capacity training has played in these efforts. I would also welcome statistical information regarding successes and challenges faced by countries in both Africa and Asia and how our country in concert with the host countries, the international community, and donors can help address such challenges.    Thank you.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Markanday</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Markanday. On behalf of Dr. Graziano da Silva, the Director-General of the United Nations Food and Agricultural Organization, I would like to thank Chairman Royce, Chairman Smith, and Ranking Members Bass and Engel for the opportunity and honor to brief you this afternoon on the work the FAO is undertaking to support the efforts of the United States in the fight against global hunger and malnutrition.    I would also like to acknowledge USAID, an extremely valued partner of FAO and, especially, Dr. Beth Dunford and the Feed the Future team who are staunch advocates for the principles of Chairman Smith's Global Food Security Act.    Chairman Smith's contribution, passion, and unyielding drive in advancing the health and nutrition needs of children worldwide is at the core of what brings us here today.    From the beginning, FAO has been inspired and supported by generous contributions from the people of the United States. The United States and FAO have a historic relationship and the U.S. was instrumental in its creation and leadership.    In 1943, President Franklin Roosevelt convened 40 countries in Hot Springs, Virginia to charter an international organization dedicated to global food nutrition and agriculture.    So, Mr. Chairman and honorable members of the subcommittee, FAO owes a tremendous debt of gratitude to your country's vision for a world free from hunger.    To this day, America's vision remains at the heart of FAO's charter. Chairman Smith's Global Food Security Act and its significant bipartisan sponsorship further demonstrates U.S. leadership where no child is left malnourished.    I hope that the U.S. further leverages the longstanding relationship and partnership with FAO in advancing the act's worthy principles.    As background and to further underscore the significant relationship between the U.S. and FAO, it is important to note that the U.S. is not only FAO's founding member country but also our largest resource partner.    The United States contributes the lion's share of the FAO budget and is second only to the European Commission in voluntary contributions.    In addition to significant financial contributions through USAID, USDA, and other U.S. agencies, FAO receives valuable in-kind contributions from the U.S. through scientific and technical expertise.    U.S. expertise had been instrumental in shaping key FAO policies and programs at the global and country levels. Major areas of cooperation include food and nutrition security, emergency assistance and resilience, food safety, and sustainable agricultural production and natural resource management. There is ample scope for expanding and deepening our collaboration in nutrition.    And now I will turn to the concerted efforts of FAO in the area of global nutrition in the first 1,000 days.    Ending hunger, food insecurity, and malnutrition is our director general's highest priority. In 2014, FAO co-hosted the second international conference in nutrition where 170 countries made the noble commitment of reducing all forms of malnutrition under the Rome Declaration.    Following the Declaration, I am pleased that the United Nations General Assembly has unanimously endorsed the Decade of Action for Nutrition earlier this year.    Supporting proper nutrition is not simply a moral imperative but, it makes economic sense. Malnutrition undermines economic growth and perpetuates poverty with productivity losses to the individual estimated at greater than 10 percent of lifetime earnings.    To the economy, losses are high and in Africa and Asia are estimated at over 11 percent per annum of GDP. Yet, targeted investments in promoting nutrition, providing micro nutrients, and supporting community-based programs targeted at children rank among the highest of all investments.    Improving nutrition in the first 1,000 days must be backed by sustainable private-public partnerships. In this regard, FAO values the role of the private sector and recognizes its essential contribution to ensure nutritional quality and food safety, investment to infrastructure and storage, and improvements in supply chains.    The private sector is our key ally under our private sector strategy. The first 1,000 days in a child's life are critical. Malnutrition leads to infection and stunted growth, resulting in poor physical and cognitive development, as Chairman Smith has just pointed out.    However, malnutrition during this period can effectively be addressed through targeted investments, proper proteins and vitamins, and especially through diversified diets.    FAO's unique comparative advantage and strength amongst development partners includes the ability to convene governments and other actors, the sharing of information and best practices, the development of effective policy dialogue, the development and dissemination of norm standards and guidelines, and the delivery of technical assistance at the primary school as well as the university levels.    The key elements of FAO's comprehensive strategy on nutrition include increased knowledge in scientific exchange, diversified food systems, the importance of food intake and food safety, and creating an enabling environment by main streaming those policies into national agricultural and investment plans.    FAO has partnered with USAID in many spheres, especially under FANTA to monitor programs, progress in outcomes and has developed indicators.    Additional collaborative efforts with USAID and Feed the Future include field-based trials in countries like Bangladesh and Cambodia, where I served, and Zambia.    A good example is Bangladesh, where FAO leveraged financing from USAID to leverage other financing from the European Union.    These activities are now being scaled up as part of the USAID--FAO Meeting the Under Nutrition Challenge program with main-streaming this program into national food policy and country investment plans.    FAO also works closely with USAID in support of the African Union's new partnership for African development in building capacities of the 50 member states of the African Development Bank to main-stream nutrition and agriculture investment plans through the CAADP Nutrition Capacity Development Initiative.    Mr. Chairman and honorable members, in conclusion, FAO is an international organization and is at the service of its members. We are both an instrument of the collective policies and the goals of our member governments.    As I have noted, the United States is a leading member and partner of FAO. Our history is longstanding and your contribution is unmatched. The U.S. should expect results from FAO to be a collaborative instrument in furthering the goals of the Global Food Security Act.    We have 197 member countries and organizations, and offices and programs in 130 countries. Therefore, FAO can be strategically leveraged by the United States as a partner to collaborate directly with our members who achieve far-reaching positive goals, results, and progress.    For example, the last world food summit hosted by the FAO brought together 5,000 delegates from 180 countries including 60 heads of state. During this summit, $20 billion was pledged to end world hunger.    FAO has the political neutrality and mandate to globally raise levels of nutrition and standards of living and FAO can be instrumental in articulating and fostering your global health, nutrition goals, and initiatives.    Chairman Smith, Ranking Member Bass and members of the subcommittee, recognizing that your oversight extends to international organizations, I leave you with one final thought for your consideration and for this I am removing my FAO cap and doffing my international civil servant cap.    In addition to the FAO, I have worked with and within many international organizations globally. I cannot think of a single one that, like FAO, which the United States does not contribute to and invest in generously.    In fact, the United States of America usually invests to the vast majority of other countries. These international organizations to which the U.S. belongs and invests can and should be effective and responsive instruments in promoting sound global policy be it for health, nutrition, trade, economics, or wherever your priorities exist.    For many countries that have limited national resources, they effectively use international organizations as vehicles to leverage their policy agenda and goals.    I submit for your consideration that the U.S. can be even more effective in your strategic engagement with these organizations and enrich new investments substantially.    Demand return on your investments. And on that note, I will now replace my FAO cap and pledge to this subcommittee and the entire U.S. Government and citizens that as the director of FAO for North America you have my highest assurances that I will strive every day to deliver results and return on your investment on behalf of FAO.    Once again, Chairman Smith and members of the subcommittee, I thank you for the honor and privilege of briefing you today.</t>
   </si>
   <si>
@@ -79,6 +97,9 @@
     <t xml:space="preserve">    Mr. Smith. Thank you. And Mr. Markanday, also--and you'll never have this problem but compassion fatigue is a problem we have to be careful about.    I will never forget after the first drought--man-made drought by Mengistu in Ethiopia everybody was on board. We are the world. When it hit the second time it was like been there, done that, got the T-shirt. People were not interested. It was horrible because people were dying.    So, again, you're part of the leadership that ensures that these individuals are never forgotten. The emphasis on not just saving lives, but enhancing your ability to get a better education and to go on to raising more dollars by way of their capabilities for their families, it's a win-win-win all over the place. So thank you again for your leadership.    Thank you. We would like to now resume our congressional hearing and again thank Mr. Markanday for his appearance here today and his insights.    We would like to welcome to the witness table Dr. Beth Dunford, who is the Assistant to the Administrator in USAID's Bureau for Food Security as well as Deputy Coordinator for Development for Feed the Future, the U.S. Government's global hunger and food security initiative.    In this dual role, Dr. Dunford coordinates implementation of Feed the Future across the U.S. Government, a whole of government approach, oversees its execution, reports on results, and leads engagement with the external community to ensure that food security remains high on the development agenda.    Dr. Dunford also oversees USAID's technical and regional expertise focused on improving food security to sustainable reduce hunger, poverty, and undernutrition.    A career Foreign Service Officer, she most recently served as Director of USAID's Mission in Nepal and has also served in Ethiopia, Afghanistan, and a number of roles in Washington. Please proceed as you would like.</t>
   </si>
   <si>
+    <t>Dunford</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Dunford. Thank you. Good afternoon, Chairman Smith, Ranking Member Bass, members of the subcommittee. Thank you for inviting me to speak today and thanks to all of you for your continued support and leadership on nutrition and food security.    I also want to thank Mr. Markanday for that presentation. We are grateful for the FAO's close collaboration with Feed the Future and it is wonderful to hear Mr. Markanday reaffirm just how seriously the FAO takes nutrition.    In particular, I would like to express my gratitude to you, Chairman Smith, for introducing the Global Food Security Act, which shows the U.S. Government's strong bipartisan commitment to reducing global hunger, poverty, and malnutrition.    The Global Food Security Act has passed both the House and the Senate and we are looking forward to working with the subcommittee members and Congress to pass it into law.    And as Feed the Future's Deputy Coordinator for Development, I am honored to be able to talk to you today about the important role the U.S. Government is playing in the fight against global hunger, poverty, and malnutrition, particularly during the critical 1,000-day window between pregnancy and a child's second birthday when good nutrition matters the most.    Nutrition bridges many areas. It affects human health, development, economic growth, agriculture, education and resilience, and because of this Feed the Future has taken a comprehensive approach to undernutrition.    And this approach has contributed to substantial progress on food security and nutrition globally. Farm productivity is on the rise among much of the global south. Poverty rates and hunger have fallen dramatically in many of the countries where we work.    Growth rates in agriculture are among the highest in recent history, and preliminary data demonstrate that we are on track to see poverty and stunting reduced by an average of 20 percent across the areas where Feed the Future works by 2017.    Just one example of this is Cambodia, where from 2010 to 2015 the prevalence of stunting fell by 23.3 percent across the areas where Feed the Future focuses its efforts.    And while we have seen impressive gains over the past 5 years, particularly on stunting and nutrition, there is still much more to be done.    We know that 795 million people are still undernourished globally, and that is 795 million too many.    Undernutrition, particularly early in life, impairs cognitive, socio-emotional, and also motor development. It leads to lower levels of educational attainment, productivity and lifetime earnings, and ultimately it slows economic growth.    For example, we know that by reducing stunting by just 20 percent can lead to an 11 percent increase in incomes. We also know that relatively simple interventions such as increased consumption of vitamin-rich orange-fleshed sweet potatoes can have a transformative impact on people's lives, especially children's.    Our interventions in nutrition are a smart investment in building human capital and shared prosperity. Every dollar spent on improved nutrition yields up to $18 in returns.    But to accelerate progress on poverty and hunger, and to ensure robust inclusive economic growth for years to come, we must do more to end malnutrition.    Significant reductions in stunting take time. But given the solid collective results over the past decade, and the global community's commitment to solving these issues, I am optimistic that we can work together across sectors, across disciplines, and we will see the elimination of malnutrition.    And while it's clear that Feed the Future can and has done a lot, we know that we will never be able to eradicate global hunger, poverty, and undernutrition on our own.    To succeed, we have to have additional partners committed to transforming agro-food systems so we can deliver benefits like good nutrition for years to come.    But impact like this does take funding, and to pay for it all we must develop a new international framework for financing agriculture, food security, and nutrition, one that goes beyond donor assistance to better leverage resources from all sectors.    So going forward, Feed the Future will intensify our partnerships--and we have been intensifying our partnerships--with: developing country governments to expand ownership and create environments that allow our investments to take root, multiply, and thrive; the private sector to bring market access, cutting-edge business practices, and innovative insights to the development table; and financial institutions to spur greater investment in small and medium enterprises and small-holder farms, ensuring inclusive sustainable economic growth on a macro level.    And civil society is also important. They help to amplify our message, increase transparency, and make sure that vulnerable groups are protected and our investments reach our targeted population.    By bringing partners together, to focus efforts on agriculture and nutrition, Feed the Future and the U.S. Government have achieved a great deal. Our approach is working and we can and will leverage it to do much more.    And that is why Feed the Future will continue to forge new partnerships and strategically steward our resources to multiply our impact and build a more food- and nutrition-secure future.    One of the most important partners we have in this is the United States Congress, and I want to thank you again for your leadership on this issue.    I am grateful for the opportunity to speak with you today and I welcome any questions, comments, and suggestions you might have.</t>
   </si>
   <si>
@@ -131,6 +152,12 @@
   </si>
   <si>
     <t>412604</t>
+  </si>
+  <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming. Thank you for your important work.</t>
@@ -560,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +595,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,1253 +617,1470 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20382.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20382.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Bass</t>
   </si>
   <si>
@@ -152,6 +161,9 @@
   </si>
   <si>
     <t>412604</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Clawson</t>
@@ -587,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,1467 +632,1580 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
